--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,14 +897,789 @@
           <t>1801 : 순조</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>13시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>노비종모법 실시</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1770 : 영조</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1731 : 영조</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>19시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>정유재란 발발</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1608 : 광해군</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1597 : 선조</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>19시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>수원 화성 건설</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1795 : 정조</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1796 : 정조</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>19시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>대보단 건립</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1804 : 순조</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1704 : 숙종</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>19시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>광주유수부 설치</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1756 : 영조</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1795 : 정조</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>19시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>평시서 설치</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1445 : 세종</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1466 : 세조</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>19시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>승정원 독립 및 설치</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1401 : 태종</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1405 : 태종</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>임꺽정의 난</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1674 : 현종</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1559 : 명종</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>나주 괘서 사건</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1771 : 영조</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1755 : 영조</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>이이의 서원향약 시행</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1589 : 선조</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1571 : 선조</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>이황의 예안향약 시행</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1603 : 선조</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1556 : 명종</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>이수광 지봉유설 집필</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1517 : 중종</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1614 : 광해군</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>이수광 지봉유설 집필</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1597 : 선조</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1614 : 광해군</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>임꺽정의 난</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1550 : 명종</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1559 : 명종</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>의방유취 편찬</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1443 : 세종</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1445 : 세종</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>팔방통보 유엽전 발행</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1463 : 세조</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1464 : 세조</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>왜군 한양 및 평양성 함락</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1610 : 광해군</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1592 : 선조</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>이이의 해주향약 시행</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1575 : 선조</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1577 : 선조</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>무오사화</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1504 : 연산군</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1498 : 연산군</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>규형 및 인지의 제작</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1463 : 세조</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1465 : 세조</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>홍경래의 난</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1676 : 숙종</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1811 : 순조</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>수어청 설치</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1636 : 인조</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1627 : 인조</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>만기요람 편찬</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1680 : 숙종</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1808 : 순조</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>훈련도감 설치</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1592 : 선조</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1594 : 선조</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>노비 추쇄법 폐지</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1777 : 정조</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1785 : 정조</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>안용복의 독도 수호</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1862 : 철종</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1693 : 숙종</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>23시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>탕평비 건립</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1771 : 영조</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1742 : 영조</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>기유처분</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1707 : 숙종</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1729 : 영조</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>계유정난</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1463 : 세조</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1453 : 단종</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>자휼전칙 반포</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1778 : 정조</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1783 : 정조</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>의금부 설치</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1405 : 태종</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1414 : 태종</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>20221222</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>13시 54분</t>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>23시 32분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1672,14 +1672,314 @@
           <t>1414 : 태종</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>20221222</t>
-        </is>
+      <c r="D50" t="n">
+        <v>20221222</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>23시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>탕평비 건립</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1755 : 영조</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1742 : 영조</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>06시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>의방유취 편찬</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1420 : 세종</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1445 : 세종</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>06시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>규형 및 인지의 제작</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1464 : 세조</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1465 : 세조</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>06시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>노비종모법 실시</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1762 : 영조</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1731 : 영조</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>06시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>인목대위 폐위</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1622 : 광해군</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1618 : 광해군</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>06시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>경재소 혁파</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1571 : 선조</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1603 : 선조</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>06시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>이황의 예안향약 시행</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1589 : 선조</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1556 : 명종</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>06시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>안정복 동사강목 저술</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1793 : 정조</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1778 : 정조</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>06시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>공법 시행</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1424 : 세종</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1444 : 세종</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>06시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>서거정 등 동문선 저술</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1424 : 세종</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1478 : 성종</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>06시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>개경 천도</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1395 : 태조</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1399 : 정종</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>06시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>속대전 편찬</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1725 : 영조</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1746 : 영조</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>20221223</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>06시 55분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1972,14 +1972,39 @@
           <t>1746 : 영조</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>20221223</t>
-        </is>
+      <c r="D62" t="n">
+        <v>20221223</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>06시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>이황의 예안향약 시행</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1555 : 명종</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1556 : 명종</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>20221224</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>11시 20분</t>
         </is>
       </c>
     </row>
